--- a/화면 시나리오/jaj시나리오0513 합본FEED.xlsx
+++ b/화면 시나리오/jaj시나리오0513 합본FEED.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$158</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="830">
   <si>
     <t>시나리오 TEST CASE</t>
   </si>
@@ -2027,6 +2027,1419 @@
     <t>test_Regi.do</t>
   </si>
   <si/>
+  <si>
+    <t>과정 등록 폼</t>
+  </si>
+  <si>
+    <t>과정 등록 폼 화면
+course_Form.jsp</t>
+  </si>
+  <si>
+    <t>관리자 마이페이지
+(mypageAdmin.jsp)</t>
+  </si>
+  <si>
+    <t>강사 전체 리스트
+(viewAllTeacher.jsp)</t>
+  </si>
+  <si>
+    <t>강사 등록 화면 
+(add_Teacher.jsp)</t>
+  </si>
+  <si>
+    <t>강사 등록 폼</t>
+  </si>
+  <si>
+    <t>강사 과정 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강사 과정 수정 폼
+</t>
+  </si>
+  <si>
+    <t>강사 등록 폼
+(add_Teacher.jsp)</t>
+  </si>
+  <si>
+    <t>강사 과정 수정 폼</t>
+  </si>
+  <si>
+    <t>강사 과정 수정 폼
+(modify_Teacher_Course.jsp)</t>
+  </si>
+  <si>
+    <t>회원 승인 리스트
+(viewAcceptUser.jsp)</t>
+  </si>
+  <si>
+    <t>학생 전체 리스트</t>
+  </si>
+  <si>
+    <t>학생 전체 리스트
+(viewAllStudent.jsp)</t>
+  </si>
+  <si>
+    <t>강사 마이페이지
+(mypageTeacher.jsp)</t>
+  </si>
+  <si>
+    <t>담당 과정 학생 리스트
+(viewMystudent.jsp)</t>
+  </si>
+  <si>
+    <t>학생 상세 조회
+(viewStudentDetail.jsp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>강사 상세 조회
+(</t>
+  </si>
+  <si>
+    <t>전체 학생 정보 수정 폼</t>
+  </si>
+  <si>
+    <t>학생 전체 수정 폼
+(viewStudentmodify.jsp)</t>
+  </si>
+  <si>
+    <t>(viewStudentDetail.jsp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 강사 정보 수정 폼 </t>
+  </si>
+  <si>
+    <t>강사 상세 조회
+(modify_Teacher_Course.jsp)</t>
+  </si>
+  <si>
+    <t>viewMyStudent.do</t>
+  </si>
+  <si>
+    <t>addTeacher.do</t>
+  </si>
+  <si>
+    <t>addTeacherForm.do</t>
+  </si>
+  <si>
+    <t>acceptUser.do</t>
+  </si>
+  <si>
+    <t>학생 과정 연결
+(.jsp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 아이디 중복 Ajax -&gt; 관리자 승인(S_CHECK 를 Y로 변경) / 거절 했을경우 DB에서 학생정보 삭제
+  2. 로그인/로그아웃
+  -&gt; ID,PW 입력 -&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+                                                                                         -&gt; 탈퇴 버튼 클릭 -&gt; 해당 회원의 DELFLAG를 Y로 변경
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t>회원가입 화면
+(join_Form.jsp)</t>
+  </si>
+  <si>
+    <t>로그인 화면
+(login_Page.jsp)</t>
+  </si>
+  <si>
+    <t>비밀번호 초기화 폼</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(mypageStudent.jsp)
+강사 마이페이지
+(mypageTeacher.jsp)
+관리자 마이페이지
+(mypageAdmin.jsp)</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(mypageStudent.jsp)
+강사 마이페이지</t>
+  </si>
+  <si>
+    <t>학생 정보 수정</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(mypageStudent.jsp)</t>
+  </si>
+  <si>
+    <t>학생 정보 수정 폼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학생 </t>
+  </si>
+  <si>
+    <t>학생 수정 화면
+(mo</t>
+  </si>
+  <si>
+    <t>학생 수정 화면
+(student_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
+  </si>
+  <si>
+    <t>student_Modify.cdo</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(student_Mypage.jsp)</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(student_Mypage.jsp)
+강사 마이페이지
+(mypageTeacher.jsp)
+관리자 마이페이지
+(mypageAdmin.jsp)</t>
+  </si>
+  <si>
+    <t>강사 정보 수정 폼</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(student_Mypage.jsp)
+강사 마이페이지
+(teacher_mypage.jsp)
+관리자 마이페이지
+(mypageAdmin.jsp)</t>
+  </si>
+  <si>
+    <t>강사 마이페이지
+(teacher_mypage.jsp)</t>
+  </si>
+  <si>
+    <t>강사 수정 화면
+(teacher_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(student_Mypage.jsp)
+강사 마이페이지
+(teacher_Mypage.jsp)
+관리자 마이페이지
+(mypageAdmin.jsp)</t>
+  </si>
+  <si>
+    <t>강사 마이페이지
+(teacher_Mypage.jsp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강사 정보 수정  </t>
+  </si>
+  <si>
+    <t>강사 수정 화면</t>
+  </si>
+  <si>
+    <t>(teacher_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>student_Modify_Form.do</t>
+  </si>
+  <si>
+    <t>student_Modify.do</t>
+  </si>
+  <si>
+    <t>teacher_Modify_Form.do</t>
+  </si>
+  <si>
+    <t>teacher_Modify.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 정보 수정 폼 </t>
+  </si>
+  <si>
+    <t>학생 마이페이지
+(student_Mypage.jsp)
+강사 마이페이지
+(teacher_Mypage.jsp)
+관리자 마이페이지
+(admin_Mypage.jsp)</t>
+  </si>
+  <si>
+    <t>관리자 마이페이지
+(admin_Mypage.jsp)</t>
+  </si>
+  <si>
+    <t>관리자 수정 화면
+(admin_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Modify_Form.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 정보 수정  </t>
+  </si>
+  <si>
+    <t>admin_Modify.do</t>
+  </si>
+  <si>
+    <t>관리자 승인 폼</t>
+  </si>
+  <si>
+    <t>관리자 회원 승인 조회</t>
+  </si>
+  <si>
+    <t>(viewAcceptUser.jsp)</t>
+  </si>
+  <si>
+    <t>관리자 회원 승인 조회
+(admin_Accept.jsp)</t>
+  </si>
+  <si>
+    <t>관리자 학생회원가입 승인</t>
+  </si>
+  <si>
+    <t>관리자 학생회원가입승인 폼</t>
+  </si>
+  <si>
+    <t>관리자 학생회원가입 거절</t>
+  </si>
+  <si>
+    <t>관리자 학생회원가입 승인 폼</t>
+  </si>
+  <si>
+    <t>admin_Accept_Form.do</t>
+  </si>
+  <si>
+    <t>join_AcceptUser.do</t>
+  </si>
+  <si>
+    <t>admin_Accept.do</t>
+  </si>
+  <si>
+    <t>admin_Accept_No.do</t>
+  </si>
+  <si>
+    <t>admin_Accept_Refuse.do</t>
+  </si>
+  <si>
+    <t>강사 전체 리스트
+(admin_Teacher_List.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Teacher_List.do</t>
+  </si>
+  <si>
+    <t>강사 등록 폼
+(admin_Teacher_Add.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Teacher_Add.do</t>
+  </si>
+  <si>
+    <t>admin_</t>
+  </si>
+  <si>
+    <t>admin_Teacher_Add_Form.do</t>
+  </si>
+  <si>
+    <t>전체 강사 정보 수정 폼</t>
+  </si>
+  <si>
+    <t>강사 수정 폼
+(admin_Teacher_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Teacher_Modify_Form.do</t>
+  </si>
+  <si>
+    <t>admin_Teacher_Modify.do</t>
+  </si>
+  <si>
+    <t>강사 정보 수정(관리자)</t>
+  </si>
+  <si>
+    <t>전체 강사 정보 수정 폼(관리자)</t>
+  </si>
+  <si>
+    <t>강사 정보 수정 폼(관리자)</t>
+  </si>
+  <si>
+    <t>강사 등록(관리자)</t>
+  </si>
+  <si>
+    <t>강사 등록 폼(관리자)</t>
+  </si>
+  <si>
+    <t>전체 강사 조회(관리자)</t>
+  </si>
+  <si>
+    <t>학생회원가입 거절</t>
+  </si>
+  <si>
+    <t>학생회원가입 승인</t>
+  </si>
+  <si>
+    <t>학생회원가입 승인 폼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정보 수정  </t>
+  </si>
+  <si>
+    <t>정보 수정 폼(관리자)</t>
+  </si>
+  <si>
+    <t>정보 수정(관리자)</t>
+  </si>
+  <si>
+    <t>학생회원가입 승인 폼(관리자)</t>
+  </si>
+  <si>
+    <t>학생회원가입 승인(관리자)</t>
+  </si>
+  <si>
+    <t>학생회원가입 거절(관리자)</t>
+  </si>
+  <si>
+    <t>학생 전체 리스트
+(admin_Student_List.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Student_List.do</t>
+  </si>
+  <si>
+    <t>전체 학생 조회(관리자)</t>
+  </si>
+  <si>
+    <t>학생 상세 조회
+(admin_Student_Detail.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Student_Detail.do</t>
+  </si>
+  <si>
+    <t>학생 정보 수정(관리자)</t>
+  </si>
+  <si>
+    <t>학생 정보 수정 폼(관리자)</t>
+  </si>
+  <si>
+    <t>학생 수정 폼
+(admin_Student_Modify.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Student_Modify.do</t>
+  </si>
+  <si>
+    <t>admin_Student_Modify_Form.do</t>
+  </si>
+  <si>
+    <t>학생 과정 조회
+(admin_Student_Course.jsp)</t>
+  </si>
+  <si>
+    <t>admin_Student_Course.do</t>
+  </si>
+  <si>
+    <t>admin_Student_Connect.do</t>
+  </si>
+  <si>
+    <t>admin_Student_CDelete.do</t>
+  </si>
+  <si>
+    <t>admin_Student_CConnect.do</t>
+  </si>
+  <si>
+    <t>admin_Student_CList.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정보 수정(강사)  </t>
+  </si>
+  <si>
+    <t>정보 수정 폼(강사)</t>
+  </si>
+  <si>
+    <t>정보 수정(학생)</t>
+  </si>
+  <si>
+    <t>정보 수정 폼(학생)</t>
+  </si>
+  <si>
+    <t>학생 상세 조회(관리자)</t>
+  </si>
+  <si>
+    <t>학생 과정 연결(관리자)</t>
+  </si>
+  <si>
+    <t>학생 과정 삭제(관리자)</t>
+  </si>
+  <si>
+    <t>학생 과정 연결 조회(관리자)</t>
+  </si>
+  <si>
+    <t>비밀번호 초기화 페이지
+(password_Reset.jsp)</t>
+  </si>
+  <si>
+    <t>password_Reset_Form.do</t>
+  </si>
+  <si>
+    <t>password_Reset.do</t>
+  </si>
+  <si>
+    <t>loin.do</t>
+  </si>
+  <si>
+    <t>login.do</t>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>main.do</t>
+  </si>
+  <si>
+    <t>수강중인 과정 조회</t>
+  </si>
+  <si>
+    <t>수강 과정 조회
+(student_Course.jsp)</t>
+  </si>
+  <si>
+    <t>student_Course.do</t>
+  </si>
+  <si>
+    <t>학생 과정 조회(학생)</t>
+  </si>
+  <si>
+    <t>과정 수강학생(강사)</t>
+  </si>
+  <si>
+    <t>담당 과정 학생 리스트
+(teacher_Student_List.jsp)</t>
+  </si>
+  <si>
+    <t>teacher_Student_List.do</t>
+  </si>
+  <si>
+    <t>담당과정 수강학생(강사)</t>
+  </si>
+  <si>
+    <t>담당과정 수강학생 조회(강사)</t>
+  </si>
+  <si>
+    <t>담당 과정 수강 학생 리스트
+(teacher_Student_List.jsp)</t>
+  </si>
+  <si>
+    <t>학생 회원가입 승인 폼(관리자)</t>
+  </si>
+  <si>
+    <t>학생 회원가입 승인(관리자)</t>
+  </si>
+  <si>
+    <t>학생 회원가입 거절(관리자)</t>
+  </si>
+  <si>
+    <t>학생 탈퇴(관리자)</t>
+  </si>
+  <si>
+    <t>admin_Student_Delete.do</t>
+  </si>
+  <si>
+    <t>강사 탈퇴시키기</t>
+  </si>
+  <si>
+    <t>강사 조회(관리자)</t>
+  </si>
+  <si>
+    <t>강사 탈퇴(관리자)</t>
+  </si>
+  <si>
+    <t>admin_Teacher_Delete.do</t>
+  </si>
+  <si>
+    <t>아이디 본인인증 Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디 본인인증 </t>
+  </si>
+  <si>
+    <t>아이디 본인인증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 아이디 본인인증 -&gt; 관리자 승인(S_CHECK 를 Y로 변경) / 거절 했을경우 DB에서 학생정보 삭제
+  2. 로그인/로그아웃
+  -&gt; ID,PW 입력 -&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+                                                                                         -&gt; 탈퇴 버튼 클릭 -&gt; 해당 회원의 DELFLAG를 Y로 변경
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 관리자 승인(S_CHECK 를 Y로 변경) / 거절 했을경우 DB에서 학생정보 삭제
+  2. 로그인/로그아웃
+  -&gt; ID,PW 입력 -&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+                                                                                         -&gt; 탈퇴 버튼 클릭 -&gt; 해당 회원의 DELFLAG를 Y로 변경
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t>핸드폰 본인인증</t>
+  </si>
+  <si>
+    <t>휴대폰 본인인증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+                                                                                         -&gt; 탈퇴 버튼 클릭 -&gt; 해당 회원의 DELFLAG를 Y로 변경
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>logout.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+                                                                                         -&gt; 탈퇴 버튼 클릭 -&gt; 해당 회원의 DELFLAG를 Y로 변경
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+                                                                    -&gt;
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     -&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) / 학생 과정 추가(ID, COURSECODE), 과정 삭제 -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된 과정 조회(ID,COURSENAME)/ 전체 과정 조회 -&gt; 삭제버튼 -&gt; 체크박스 선택된 과정 삭제
+-&gt; 저장 버튼 클릭 -&gt; 전체과정중 선택과정 연결 
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된 과정 조회(ID,COURSENAME)/ 전체 과정 조회 -&gt; 삭제버튼 -&gt; 체크박스 선택된 과정 삭제
+-&gt; 저장 버튼 클릭 -&gt; 전체과정중 선택과정 연결 
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+            -&gt; 강사 조회 버튼 클릭 -&gt; 강사 리스트 조회 (ID, NAME, COURSECODE) -&gt; NAME 클릭 -&gt; 강사 상세 조회 (ID,PW,NAME,COURSECODE) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 강사 정보 수정 (ID,PW,NAME)
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된 과정 조회(ID,COURSENAME)/ 전체 과정 조회 -&gt; 삭제버튼 -&gt; 체크박스 선택된 과정 삭제
+-&gt; 저장 버튼 클릭 -&gt; 전체과정중 선택과정 연결 
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 회원가입
+  -&gt; 학생 (ID,PW,NAME,GENDER,BIRTH,ADDR) -&gt; 휴대폰 본인인증 -&gt; 회원가입
+  2. 로그인/로그아웃
+  학생, 강사, 관리자 선택 후 -&gt; ID,PW 입력 -&gt; 학생의 경우 회원가입 승인 여부 확인 (S_Check = Y 인회원이 로그인)-&gt; 메인페이지로 이동 -&gt; 세션에 MAP 담음 (TABLE, ID, NAME)
+  -&gt; 헤더에 있는 로그 아웃 버튼 클릭-&gt; 세션에서 회원정보 제거 -&gt; 로그인 화면 이동
+3. 비밀번호 초기화
+  -&gt; 비밀번호 초기화 버튼 클릭 -&gt; 비밀번호 초기화 페이지 이동 -&gt; ID, NAME 입력 -&gt; DB에 해당 회원 PW를 임의의 8자리 숫자로 변경 -&gt; 해당 회원의 ID로 변경한 PW 전송 
+4. 회원정보
+  -&gt; 헤더에 있는 이름 클릭 
+      -  학생
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, GENDER, BIRTH, ADDR) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME, GENDER, ADDR)
+                                                                                         -&gt; 과정 조회 버튼 클릭 -&gt; 자신이 속한 과정 리스트 정보 조회 (COURSENAME, STARTDATE, COURSECNT)
+      - 강사
+      -&gt; 자신의 정보 조회 (ID, PW, NAME, COURSECODE) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+        -&gt; 학생 조회 버튼 클릭 -&gt; 자신과 같은 과정 수강중인 학생 리스트 조회 (ID,NAME,GENDER,BIRTH,ADDR)
+      - 관리자
+      -&gt; 자신의 정보 조회 (ID, PW, NAME) -&gt; 수정 버튼 클릭 -&gt; 회원 정보 수정 (PW, NAME)
+                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">전체 강사 리스트(ID,NAME,COURSECODE)-&gt; 강사 등록 버튼 클릭 -&gt; 강사 정보 등록 (ID, PW, NAME, COURSECODE)
+            -&gt; 강사 탈퇴 버튼 -&gt; 리스트에서 체크 박스 선택한 강사 탈퇴
+-&gt; 강사 이름 클릭 -&gt; 강사 상세조회&amp;수정(ID,PW,NAME,COURSECODE)
+                                                     -&gt; 가입 승인 버튼 클릭 -&gt; 가입 대기 신청자 리스트 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+             -&gt;학생 가입 승인/미승인 처리
+                                                     -&gt; 학생 조회 버튼 클릭 -&gt; 학생 리스트 조회(ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; NAME 클릭 -&gt; 학생 상세 조회 (ID,PW,NAME,GENDER,BIRTH,ADDR,DELFLAG) -&gt; 학생 정보 수정 버튼 클릭 -&gt; 학생 정보 수정 (ID,PW,NAME,GENDER,BIRTH,ADDR)
+-&gt; 과정연결 버튼  클릭 -&gt; 연결된 과정 조회(ID,COURSENAME)/ 전체 과정 조회 -&gt; 삭제버튼 -&gt; 체크박스 선택된 과정 삭제
+-&gt; 저장 버튼 클릭 -&gt; 전체과정중 선택과정 연결 
+                -&gt; 체크 박스 학생 다중 삭제 -&gt; 체크 박스에 체크되어있는 학생들의 DELFLAG를 모두 Y로 바꿈
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>전체 과정 조회()</t>
+  </si>
+  <si>
+    <t>전체 과정 조회(관리자)</t>
+  </si>
+  <si>
+    <t>course_Add_Form.do</t>
+  </si>
+  <si>
+    <t>과정 추가</t>
+  </si>
+  <si>
+    <t>course_Cnt.do</t>
+  </si>
+  <si>
+    <t>과목(강사)</t>
+  </si>
+  <si>
+    <t>과정(관리자)</t>
+  </si>
+  <si>
+    <t>과정 조회</t>
+  </si>
+  <si>
+    <t>담당과정 조회</t>
+  </si>
+  <si>
+    <t>담당 과정 조회
+subject_Course.jsp</t>
+  </si>
+  <si>
+    <t>subject_Course.do</t>
+  </si>
+  <si>
+    <t>과목 리스트 화면</t>
+  </si>
+  <si>
+    <t>담당 과정 화면
+subject_Course.jsp</t>
+  </si>
+  <si>
+    <t>과목 선택 화면
+subject_Choice.jsp</t>
+  </si>
+  <si>
+    <t>subject_Choice.jsp</t>
+  </si>
+  <si>
+    <t>subject_Choice.do</t>
+  </si>
+  <si>
+    <t>과정에 과목 추가 폼</t>
+  </si>
+  <si>
+    <t>과목 추가 화면
+subject_Add_Form.jsp</t>
+  </si>
+  <si>
+    <t>subject_Add_Form.jsp</t>
+  </si>
+  <si>
+    <t>subject_Add_Form.do</t>
+  </si>
+  <si>
+    <t>과목 복사 폼</t>
+  </si>
+  <si>
+    <t>과목 복사</t>
+  </si>
+  <si>
+    <t>과목 복사 화면
+subject_Copy_Form.jsp</t>
+  </si>
+  <si>
+    <t>subject_Copy_Form.jsp</t>
+  </si>
+  <si>
+    <t>subject_Copy_Form.do</t>
+  </si>
+  <si>
+    <t>subject_Copy.do</t>
+  </si>
+  <si>
+    <t>과목 복사 확인 폼</t>
+  </si>
+  <si>
+    <t>선택한 과정 과목 화면
+subject_Choice_List.jsp</t>
+  </si>
+  <si>
+    <t>subject_Choice_List.jsp</t>
+  </si>
+  <si>
+    <t>subject_Choice_List.do</t>
+  </si>
+  <si>
+    <t>과목 추가 폼</t>
+  </si>
+  <si>
+    <t>과목 추가</t>
+  </si>
+  <si>
+    <t>subject_Course_Add.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과정
+ 과목 조회 버튼 클릭 -&gt; 현재 자신의 과정(세션에 저장된 ID로 COUSECODE를 가져옴)에 포함된 과목 리스트 조회 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, TYPECODE)(? 보류) -&gt; 과목 추가 버튼 클릭 -&gt; 과목 목록 조회(SUBJECTCODE,SUBJECTNAME) -&gt; 과목 선택 후 과목 추가(선택한 SUBJECTCODE로 추가) -&gt; 과정에 과목이 추가됨
+                                                                                                                                                                                                                                  -&gt; 과목 등록 버튼 클릭 -&gt; 과목을 등록 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, EXAMTYPE)
+</t>
+  </si>
+  <si>
+    <t>과정관리 탭 클릭-&gt; 전체 과정리스트(과정명, 강사명, 시작날짜 ,종료날짜, 회차)
+  리스트밑에 과정등록 버튼클릭-&gt;(새과정 만들시) 과정 이름,시작일 정해주기
+  같은 과정에서 회차만 늘리는 경우 과정 추가 버튼 클릭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과정
+과정관리 탭 클릭-&gt; 전체 과정리스트(과정명, 강사명, 시작날짜 ,종료날짜, 회차)
+  리스트밑에 과정등록 버튼클릭-&gt;(새과정 만들시) 과정 이름,시작일 정해주기
+  같은 과정에서 회차만 늘리는 경우 과정 추가 버튼 클릭
+ 과목 조회 버튼 클릭 -&gt; 현재 자신의 과정(세션에 저장된 ID로 COUSECODE를 가져옴)에 포함된 과목 리스트 조회 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, TYPECODE)(? 보류) -&gt; 과목 추가 버튼 클릭 -&gt; 과목 목록 조회(SUBJECTCODE,SUBJECTNAME) -&gt; 과목 선택 후 과목 추가(선택한 SUBJECTCODE로 추가) -&gt; 과정에 과목이 추가됨
+                                                                                                                                                                                                                                  -&gt; 과목 등록 버튼 클릭 -&gt; 과목을 등록 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, EXAMTYPE)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과정
+과정관리 탭 클릭-&gt; 전체 과정리스트(과정명, 강사명, 시작날짜 ,종료날짜, 회차)
+  리스트밑에 과정등록 버튼클릭-&gt;(새과정 만들시) 과정 이름,시작일 정해주기
+  같은 과정에서 회차만 늘리는 경우 과정 추가 버튼 클릭
+ 담당 과정 조회(세션에 저장된 ID로 COUSECODE를 가져옴) -&gt; 과정명 클릭시 -&gt;  전체 과목 리스트 조회 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, TYPECODE)-&gt; 과목 추가 버튼 클릭 -&gt;과목 추가(SUBJECTNAME,SUBJECTTYPE,EXAMTYPE)
+복사 버튼 클릭 -&gt; 동일한 과정명/ 다른회차 과정 선택박스 -&gt; 선택후 다음 클릭 -&gt; 해당 과정 과목 리스트 조회(SUBJECTNAME) -&gt;확인버튼 클릭 시 전체 과목 리스트 조회의 선택 과목으로 복사가됨 
+                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">과정
+과정관리 탭 클릭-&gt; 전체 과정리스트(과정명, 강사명, 시작날짜 ,종료날짜, 회차)
+  리스트밑에 과정등록 버튼클릭-&gt;(새과정 만들시) 과정 이름,시작일 정해주기
+  같은 과정에서 회차만 늘리는 경우 과정 추가 버튼 클릭
+ 담당 과정 조회(세션에 저장된 ID로 COUSECODE를 가져옴) -&gt; 과정명 클릭시 -&gt;  전체 과목 리스트 조회 (SUBJECTCODE, SUBJECTNAME, SUBJECTTYPE, TYPECODE)-&gt; 과목 추가 버튼 클릭 -&gt;과목 추가(SUBJECTNAME,SUBJECTTYPE,EXAMTYPE)
+복사 버튼 클릭 -&gt; 동일한 과정명/ 다른회차 과정 선택박스 -&gt; 선택후 다음 클릭 -&gt; 해당 과정 과목 리스트 조회(SUBJECTNAME) -&gt;확인버튼 클릭 시 전체 과목 리스트 조회의 선택 과목으로 복사가됨 
+-&gt; 전체 과목을 선택과목으로 옮길시 선택과목에서 과목시작날짜, 과목 배정시간을 입력 -&gt; 등록 버튼누르면 과정-과목 연결
+                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>Beacon 메인 페이지</t>
+  </si>
+  <si>
+    <t>Beacon 로그인 페이지</t>
+  </si>
+  <si>
+    <t>모바일 로그인 화면
+mobile_Login.jsp</t>
+  </si>
+  <si>
+    <t>Beacon 출석 페이지</t>
+  </si>
+  <si>
+    <t>모바일 출석 화면
+mobile_Attended.jsp</t>
+  </si>
+  <si>
+    <t>Beacon 출석</t>
+  </si>
+  <si>
+    <t>Beacon 출석퇴실</t>
+  </si>
+  <si>
+    <t>모바일 메인 화면
+mobile_Main.jsp</t>
+  </si>
+  <si>
+    <t>beacon_login.do</t>
+  </si>
+  <si>
+    <t>beacon_Login.do</t>
+  </si>
+  <si>
+    <t>beacon_Attended.do</t>
+  </si>
+  <si>
+    <t>beacon_Checkout.do</t>
+  </si>
+  <si>
+    <t>Beacon 종료</t>
+  </si>
+  <si>
+    <t>beacon_Main.do</t>
+  </si>
+  <si>
+    <t>beacon_Getout.do</t>
+  </si>
+  <si>
+    <t>학생 출결 화면
+(attended_Student_Course.jsp)</t>
+  </si>
+  <si>
+    <t>학생 출결 화면
+(attended_Student.jsp)</t>
+  </si>
+  <si>
+    <t>학생 과정 화면
+(attended_Student_Course.jsp)</t>
+  </si>
+  <si>
+    <t>attended_Student_Course.</t>
+  </si>
+  <si>
+    <t>attended_Student_Course.do</t>
+  </si>
+  <si>
+    <t>(attended_Student.jsp</t>
+  </si>
+  <si>
+    <t>attended_Student.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 화면
+(main.jsp)
+</t>
+  </si>
+  <si>
+    <t>강사 과정 화면</t>
+  </si>
+  <si>
+    <t>(teacher_Course.jsp)</t>
+  </si>
+  <si>
+    <t>강사 출결 조회 화면
+attended_Teacher.jsp</t>
+  </si>
+  <si>
+    <t>학생 과정 화면
+attended_Student_Course.jsp</t>
+  </si>
+  <si>
+    <t>학생 출결 화면
+attended_Student.jsp</t>
+  </si>
+  <si>
+    <t>메인 화면
+main.jsp</t>
+  </si>
+  <si>
+    <t>attended_Teacher.jsp</t>
+  </si>
+  <si>
+    <t>attended_Teacher.do</t>
+  </si>
+  <si>
+    <t>학생 출결상세 화면
+attended_Rollbook.jsp</t>
+  </si>
+  <si>
+    <t>attended_Rollbook.jsp</t>
+  </si>
+  <si>
+    <t>attended_Rollbook.do</t>
+  </si>
+  <si>
+    <t>학생 출석부 화면
+attended_Rollbook.jsp</t>
+  </si>
+  <si>
+    <t>학생 출석부 화면
+attended_Detail.jsp</t>
+  </si>
+  <si>
+    <t>attended_Detail.jsp</t>
+  </si>
+  <si>
+    <t>attended_Detail.do</t>
+  </si>
+  <si>
+    <t>학생 출결 상세 조회 화면
+attended_Detail.jsp</t>
+  </si>
+  <si>
+    <t>ateended_SMS.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">출결관리
+1. Beacon
+ -&gt; Beacon 로그인 페이지 이동 -&gt; 아이디 비밀번호로 로그인 -&gt; Beacon 출석, 퇴실 페이지 이동
+  -&gt; 출석 버튼 클릭시 A_CHECK Y로 저장
+  -&gt; 퇴실 버튼 클릭시 A_CHECK N으로 저장
+  -&gt; 출석/퇴실 버튼 클릭시 Beacon 메인 페이지로 이동 후 종료 가능 
+  -&gt; Beacon에서 APK 가 설치된 Beacon Application으로 UUID(식별번호)를 전송한 후 
+ 출결관리 Application에서 DB Server로 UUID를 전송, DB Server에서 
+ 출석 정보를 Application 으로 전송, DB Server에 출결현황 : A_CHECK (만약 출석 시 A_CHECK를 Y로 저장, 퇴실시 N으로 저장,결석이라면 null)을 저장 
+2. 출결 조회 
+ - 학생
+ -&gt; 출결 Tab을 클릭 후 학생 과정 화면으로 이동 -&gt; 학생과정 화면에서 학생 본인의 과정 조회 가능(COURSENAME)
+ -&gt; 과정 클릭 시 해당 과정의 출석 정보 출력(A_CHECK)
+ - 강사
+ -&gt; 출결 Tab을 클릭 후 강사 출결 조회 화면으로 이동 
+ -&gt; 강사 출결 조회 화면 에서 해당 강사가 진행하고 있는 과정 확인 가능(USERCOURSE, ID, COURSECODE) 
+ -&gt; 강사 출결 조회 화면에서 해당 과정의 해당월 출결 차트 조회 가능(REGDATE,A_CHECK) 
+ -&gt; 강사 출결 조회 화면 안에 캘린더에서 출결을 조회하고 싶은 날짜를 클릭 시 해당 날짜의 출석 부 화면으로 이동
+ (ID, COURSECODE, U.REGDATE, A.REGDATE)
+ -&gt; 출석 부 안에 학생 클릭 시 학생의 출결 상세조회 페이지로 이동 
+ -&gt; 출결 상세조회 페이지에서 학생의 월별 출결현황(ID,NAME,GENDER,BIRTH)과 차트 출력
+ -&gt; 학생 출결 페이지에서 결석 조건에 충족한 학생에게 문자 전송 버튼 클릭시 결석 문자 전송 </t>
+  </si>
+  <si>
+    <t>결석 신청 상세조회
+app_Detail.jsp</t>
+  </si>
+  <si>
+    <t>결석 신청 내역화면
+app_List.jsp</t>
+  </si>
+  <si>
+    <t>결석 신청 폼 화면
+app_Form.jsp</t>
+  </si>
 </sst>
 </file>
 
@@ -2035,7 +3448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -2220,8 +3633,21 @@
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
     </font>
+    <font>
+      <sz val="6.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2435,6 +3861,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3271,7 +4709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3367,6 +4805,105 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="18" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="100">
@@ -3761,22 +5298,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView topLeftCell="A145" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" style="1" width="17.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="17.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="21.00499916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="1" width="24.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="17.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="19.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="1" width="21.87999916" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="4" width="97.00499725" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="47" width="17.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="47" width="19.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="47" width="21.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="47" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="48" width="97.00499725" customWidth="1" outlineLevel="0"/>
     <col min="9" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -3793,17 +5330,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3811,2821 +5348,3556 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="33.750000">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="22.500000">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="45.000000">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="45.000000">
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.500000">
       <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.500000">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="67.500000">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="22.500000">
       <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="22.500000">
       <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="11.250000">
+      <c r="B10" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>734</v>
+      </c>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="67.500000">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>604</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.500000">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>709</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.500000">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
+        <v>693</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.500000">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>692</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.500000">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>691</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.500000">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>690</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.500000">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>714</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.500000">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
+        <v>669</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.500000">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
+        <v>670</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.500000">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
+        <v>716</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.500000">
       <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>717</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.500000">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
+        <v>718</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.500000">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
+        <v>722</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.500000">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.500000">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8">
+        <v>663</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.500000">
       <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="22.500000">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="22.500000">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45.000000">
+      <c r="A28" s="5"/>
+      <c r="B28" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.500000">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>676</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="22.500000">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>719</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="22.500000">
       <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="45.000000">
-      <c r="A32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>217</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>678</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.500000">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>681</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="22.500000">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="22.500000">
+      <c r="B33" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>681</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" ht="22.500000">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>688</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="22.500000">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="45.000000">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="3"/>
+      <c r="B36" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.500000">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="45.000000">
       <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="3"/>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" ht="22.500000">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="3"/>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" ht="22.500000">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="22.500000">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="62"/>
+    </row>
+    <row r="41" spans="1:8" ht="45.000000">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="62" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="22.500000">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="45.000000">
+        <v>58</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="62"/>
+    </row>
+    <row r="43" spans="1:8" ht="22.500000">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="45.000000">
+        <v>72</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="62"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.500000">
       <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="22.500000">
+        <v>248</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="62"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.500000">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="22.500000">
+        <v>246</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="62"/>
+    </row>
+    <row r="46" spans="1:8" ht="45.000000">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="22.500000">
+        <v>82</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="62"/>
+    </row>
+    <row r="47" spans="1:8" ht="45.000000">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="22.500000">
+        <v>68</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="62"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.500000">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="45.000000">
+        <v>58</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="62"/>
+    </row>
+    <row r="49" spans="1:8" ht="22.500000">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="22.500000">
+        <v>72</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="62"/>
+    </row>
+    <row r="50" spans="1:8" ht="22.500000">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:8" ht="22.500000">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="22.500000">
+        <v>246</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="62"/>
+    </row>
+    <row r="52" spans="1:8" ht="45.000000">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" ht="67.500000">
+        <v>82</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="62"/>
+    </row>
+    <row r="53" spans="1:8" ht="45.000000">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" ht="45.000000">
+        <v>233</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="62"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" ht="22.500000">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="3"/>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" ht="22.500000">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="22.500000">
+        <v>72</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="62"/>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="22.500000">
+      <c r="C57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" s="47"/>
+      <c r="H57" s="62"/>
+    </row>
+    <row r="58" spans="1:8" ht="45.000000">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" ht="22.500000">
+        <v>246</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G58" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="62"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" s="47"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" ht="22.500000">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" ht="22.500000">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="45.000000">
+        <v>80</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="62"/>
+    </row>
+    <row r="62" spans="1:8" ht="67.500000">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" ht="22.500000">
+        <v>68</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G62" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="62"/>
+    </row>
+    <row r="63" spans="1:8" ht="45.000000">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" ht="22.500000">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="3"/>
+      <c r="C64" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" ht="22.500000">
       <c r="A65" s="5"/>
-      <c r="B65" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H65" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" ht="22.500000">
       <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" ht="22.500000">
+      <c r="B66" s="5"/>
+      <c r="C66" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="62"/>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="G67" s="47"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" ht="22.500000">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" ht="22.500000">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H69" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="1:8" ht="22.500000">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="22.500000">
+        <v>39</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="62"/>
+    </row>
+    <row r="71" spans="1:8" ht="45.000000">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H71" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" ht="22.500000">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H72" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G72" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" ht="22.500000">
-      <c r="A73" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:8" ht="22.500000">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H74" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:8" ht="22.500000">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="62"/>
     </row>
     <row r="76" spans="1:8" ht="22.500000">
-      <c r="A76" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>286</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" s="62"/>
     </row>
     <row r="77" spans="1:8" ht="22.500000">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H77" s="3"/>
+      <c r="C77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="62"/>
     </row>
     <row r="78" spans="1:8" ht="22.500000">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:8" ht="22.500000">
       <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
-        <v>295</v>
-      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" ht="45.000000">
+        <v>80</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G79" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" s="62"/>
+    </row>
+    <row r="80" spans="1:8" ht="22.500000">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H80" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G80" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:8" ht="22.500000">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H81" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="1:8" ht="22.500000">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>754</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H82" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="G82" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="63" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="22.500000">
-      <c r="A83" s="5"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>570</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="22.500000">
-      <c r="A84" s="5"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H84" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G84" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="22.500000">
-      <c r="A85" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A85" s="29"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="G85" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="22.500000">
-      <c r="A86" s="5"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="16" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>758</v>
+      </c>
+      <c r="G86" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" s="63"/>
+    </row>
+    <row r="87" spans="1:8" ht="22.500000">
+      <c r="A87" s="29"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" ht="22.500000">
-      <c r="A87" s="5"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" ht="33.750000">
-      <c r="A88" s="5"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="3"/>
+      <c r="D87" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="F87" s="47" t="s">
+        <v>763</v>
+      </c>
+      <c r="H87" s="63"/>
+    </row>
+    <row r="88" spans="1:8" ht="22.500000">
+      <c r="A88" s="29"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>767</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="22.500000">
-      <c r="A89" s="5"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="F89" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" ht="45.000000">
-      <c r="A90" s="5"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="3"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" s="63"/>
+    </row>
+    <row r="90" spans="1:8" ht="22.500000">
+      <c r="A90" s="29"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>772</v>
+      </c>
+      <c r="G90" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="22.500000">
-      <c r="A91" s="5"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="F91" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" ht="45.000000">
-      <c r="A92" s="5"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="33.750000">
-      <c r="A93" s="5"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="3"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>777</v>
+      </c>
+      <c r="H91" s="63"/>
+    </row>
+    <row r="92" spans="1:8" ht="22.500000">
+      <c r="A92" s="29"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>773</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" s="63"/>
+    </row>
+    <row r="93" spans="1:8" ht="22.500000">
+      <c r="A93" s="29"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="G93" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="22.500000">
-      <c r="A94" s="5"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="22.500000">
+      <c r="A94" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="F94" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G94" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" s="62" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="22.500000">
       <c r="A95" s="5"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="H95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>795</v>
+      </c>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" ht="22.500000">
       <c r="A96" s="5"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" ht="45.000000">
+      <c r="B96" s="5"/>
+      <c r="C96" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="F96" s="47" t="s">
+        <v>796</v>
+      </c>
+      <c r="H96" s="62"/>
+    </row>
+    <row r="97" spans="1:8" ht="22.500000">
       <c r="A97" s="5"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" ht="33.750000">
+      <c r="B97" s="5"/>
+      <c r="C97" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="F97" s="47" t="s">
+        <v>797</v>
+      </c>
+      <c r="H97" s="62"/>
+    </row>
+    <row r="98" spans="1:8" ht="22.500000">
       <c r="A98" s="5"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" ht="45.000000">
+      <c r="B98" s="5"/>
+      <c r="C98" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="E98" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="F98" s="47" t="s">
+        <v>799</v>
+      </c>
+      <c r="H98" s="62"/>
+    </row>
+    <row r="99" spans="1:8" ht="22.500000">
       <c r="A99" s="5"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="E99" s="18" t="s">
+      <c r="B99" s="5"/>
+      <c r="C99" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="E99" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H99" s="3"/>
+      <c r="F99" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="H99" s="62"/>
     </row>
     <row r="100" spans="1:8" ht="22.500000">
       <c r="A100" s="5"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="E100" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="F100" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="G100" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H100" s="62"/>
     </row>
     <row r="101" spans="1:8" ht="22.500000">
       <c r="A101" s="5"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" s="0" customFormat="1" ht="22.500000">
+      <c r="B101" s="5"/>
+      <c r="C101" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="E101" s="46" t="s">
+        <v>813</v>
+      </c>
+      <c r="F101" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="G101" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H101" s="62"/>
+    </row>
+    <row r="102" spans="1:8" ht="22.500000">
       <c r="A102" s="5"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G102" s="0"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" s="0" customFormat="1" ht="22.500000">
+      <c r="B102" s="5"/>
+      <c r="C102" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="E102" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="F102" s="47" t="s">
+        <v>816</v>
+      </c>
+      <c r="G102" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102" s="62"/>
+    </row>
+    <row r="103" spans="1:8" ht="22.500000">
       <c r="A103" s="5"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="G103" s="0"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" s="0" customFormat="1" ht="22.500000">
+      <c r="B103" s="5"/>
+      <c r="C103" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="F103" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="G103" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H103" s="62"/>
+    </row>
+    <row r="104" spans="1:8" ht="22.500000">
       <c r="A104" s="5"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="H104" s="3"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>824</v>
+      </c>
+      <c r="F104" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="G104" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H104" s="62"/>
     </row>
     <row r="105" spans="1:8" ht="22.500000">
       <c r="A105" s="5"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="G105" s="0"/>
-      <c r="H105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="F105" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="G105" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H105" s="62"/>
     </row>
     <row r="106" spans="1:8" ht="22.500000">
-      <c r="A106" s="5"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="G106" s="0"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" s="0" customFormat="1" ht="22.500000">
+      <c r="A106" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="F106" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="G106" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="22.500000">
       <c r="A107" s="5"/>
-      <c r="B107" s="5" t="s">
-        <v>269</v>
-      </c>
+      <c r="B107" s="29"/>
       <c r="C107" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="E107" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H107" s="3"/>
+      <c r="E107" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="F107" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G107" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="1:8" ht="22.500000">
       <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E108" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="F108" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" ht="22.500000">
+      <c r="E108" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="F108" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108" s="62"/>
+    </row>
+    <row r="109" spans="1:8" ht="33.750000">
       <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" ht="56.250000">
+        <v>120</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="E109" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F109" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="G109" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H109" s="62"/>
+    </row>
+    <row r="110" spans="1:8" ht="45.000000">
       <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" ht="56.250000">
+      <c r="B110" s="29"/>
+      <c r="C110" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="E110" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="F110" s="58" t="s">
+        <v>567</v>
+      </c>
+      <c r="G110" s="59"/>
+      <c r="H110" s="62"/>
+    </row>
+    <row r="111" spans="1:8" ht="45.000000">
       <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" ht="22.500000">
+      <c r="B111" s="29"/>
+      <c r="C111" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="F111" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="G111" s="59"/>
+      <c r="H111" s="62"/>
+    </row>
+    <row r="112" spans="1:8" s="1" customFormat="1" ht="33.750000">
       <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H112" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="D112" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="F112" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="G112" s="47"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="1:8" ht="22.500000">
       <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" ht="22.500000">
+        <v>122</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="F113" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" s="62"/>
+    </row>
+    <row r="114" spans="1:8" s="1" customFormat="1" ht="22.500000">
       <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F114" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H114" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G114" s="47"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="1:8" ht="22.500000">
       <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="E115" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="E115" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="F115" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="G115" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115" s="62"/>
+    </row>
+    <row r="116" spans="1:8" ht="45.000000">
+      <c r="A116" s="5"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="E116" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="F116" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="G116" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H116" s="62"/>
+    </row>
+    <row r="117" spans="1:8" ht="33.750000">
+      <c r="A117" s="5"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="E117" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F117" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H117" s="62"/>
+    </row>
+    <row r="118" spans="1:8" ht="45.000000">
+      <c r="A118" s="5"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="E118" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="F115" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8" ht="22.500000">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="18" t="s">
+      <c r="F118" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="G118" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="H118" s="62"/>
+    </row>
+    <row r="119" spans="1:8" ht="22.500000">
+      <c r="A119" s="5"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="E119" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="E116" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" ht="22.500000">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="F117" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" ht="22.500000">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="F118" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" ht="67.500000">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" ht="67.500000">
+      <c r="F119" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="G119" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H119" s="62"/>
+    </row>
+    <row r="120" spans="1:8" ht="22.500000">
       <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" ht="22.500000">
+        <v>466</v>
+      </c>
+      <c r="D120" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="E120" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F120" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G120" s="47"/>
+      <c r="H120" s="62"/>
+    </row>
+    <row r="121" spans="1:8" s="0" customFormat="1" ht="22.500000">
       <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="1:8" ht="33.750000">
+        <v>470</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="E121" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="F121" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G121" s="61"/>
+      <c r="H121" s="62"/>
+    </row>
+    <row r="122" spans="1:8" s="0" customFormat="1" ht="22.500000">
       <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" ht="22.500000">
+        <v>472</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="E122" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F122" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="G122" s="61"/>
+      <c r="H122" s="62"/>
+    </row>
+    <row r="123" spans="1:8" s="0" customFormat="1" ht="22.500000">
       <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" ht="22.500000">
+        <v>476</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="E123" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="F123" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G123" s="61"/>
+      <c r="H123" s="62"/>
+    </row>
+    <row r="124" spans="1:8" ht="33.750000">
       <c r="A124" s="5"/>
-      <c r="B124" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H124" s="3"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="E124" s="53" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="G124" s="61"/>
+      <c r="H124" s="62"/>
     </row>
     <row r="125" spans="1:8" ht="22.500000">
       <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D125" s="18" t="s">
+      <c r="B125" s="30"/>
+      <c r="C125" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="E125" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="F125" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G125" s="61"/>
+      <c r="H125" s="62"/>
+    </row>
+    <row r="126" spans="1:8" s="0" customFormat="1" ht="22.500000">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="E126" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="E125" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" ht="22.500000">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H126" s="3"/>
+      <c r="F126" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="G126" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="1:8" ht="22.500000">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E127" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H127" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D127" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="E127" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="F127" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="G127" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H127" s="62"/>
     </row>
     <row r="128" spans="1:8" ht="22.500000">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="1:8" ht="22.500000">
-      <c r="A129" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="22.500000">
+        <v>121</v>
+      </c>
+      <c r="D128" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E128" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="F128" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="G128" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H128" s="62"/>
+    </row>
+    <row r="129" spans="1:8" ht="56.250000">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="E129" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="F129" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G129" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="H129" s="62"/>
+    </row>
+    <row r="130" spans="1:8" ht="56.250000">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H130" s="3"/>
+      <c r="C130" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="E130" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="F130" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H130" s="62"/>
     </row>
     <row r="131" spans="1:8" ht="22.500000">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="1:8" ht="33.750000">
+      <c r="C131" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="E131" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F131" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="G131" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="H131" s="62"/>
+    </row>
+    <row r="132" spans="1:8" ht="22.500000">
       <c r="A132" s="5"/>
-      <c r="B132" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="E132" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F132" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="G132" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H132" s="62"/>
     </row>
     <row r="133" spans="1:8" ht="22.500000">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H133" s="3"/>
+      <c r="C133" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="E133" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F133" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="G133" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H133" s="62"/>
     </row>
     <row r="134" spans="1:8" ht="22.500000">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H134" s="3"/>
+      <c r="C134" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="E134" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="F134" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="G134" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H134" s="62"/>
     </row>
     <row r="135" spans="1:8" ht="22.500000">
       <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H135" s="3"/>
+      <c r="B135" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="E135" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="F135" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="G135" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H135" s="62"/>
     </row>
     <row r="136" spans="1:8" ht="22.500000">
       <c r="A136" s="5"/>
-      <c r="B136" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H136" s="3"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="E136" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="F136" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="G136" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H136" s="62"/>
     </row>
     <row r="137" spans="1:8" ht="22.500000">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:8" ht="22.500000">
+      <c r="C137" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D137" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="F137" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="G137" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="H137" s="62"/>
+    </row>
+    <row r="138" spans="1:8" ht="67.500000">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:8" ht="33.750000">
+      <c r="C138" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D138" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="E138" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="F138" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="G138" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H138" s="62"/>
+    </row>
+    <row r="139" spans="1:8" ht="67.500000">
       <c r="A139" s="5"/>
-      <c r="B139" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H139" s="3"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D139" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="E139" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="F139" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="H139" s="62"/>
     </row>
     <row r="140" spans="1:8" ht="22.500000">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="1:8" ht="22.500000">
+      <c r="C140" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="E140" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="F140" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="G140" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="H140" s="62"/>
+    </row>
+    <row r="141" spans="1:8" ht="33.750000">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H141" s="3"/>
+      <c r="C141" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="E141" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F141" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="G141" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H141" s="62"/>
     </row>
     <row r="142" spans="1:8" ht="22.500000">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H142" s="3"/>
+      <c r="C142" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="E142" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="F142" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="G142" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H142" s="62"/>
     </row>
     <row r="143" spans="1:8" ht="22.500000">
       <c r="A143" s="5"/>
       <c r="B143" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D143" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="F143" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="G143" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H143" s="62"/>
+    </row>
+    <row r="144" spans="1:8" ht="22.500000">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="F144" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="G144" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="H144" s="62"/>
+    </row>
+    <row r="145" spans="1:8" ht="22.500000">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E145" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="F145" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="G145" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="62"/>
+    </row>
+    <row r="146" spans="1:8" ht="22.500000">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D146" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="F146" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="G146" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H146" s="62"/>
+    </row>
+    <row r="147" spans="1:8" ht="22.500000">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="E147" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F147" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="G147" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="H147" s="62"/>
+    </row>
+    <row r="148" spans="1:8" ht="22.500000">
+      <c r="A148" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D148" s="46" t="s">
+        <v>829</v>
+      </c>
+      <c r="E148" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F148" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G148" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H148" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="22.500000">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D149" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E149" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F149" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G149" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H149" s="62"/>
+    </row>
+    <row r="150" spans="1:8" ht="22.500000">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D150" s="46" t="s">
+        <v>829</v>
+      </c>
+      <c r="E150" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F150" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G150" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="H150" s="62"/>
+    </row>
+    <row r="151" spans="1:8" ht="33.750000">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D151" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="E151" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="F151" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G151" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="H151" s="62"/>
+    </row>
+    <row r="152" spans="1:8" ht="22.500000">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D152" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E152" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="H152" s="62"/>
+    </row>
+    <row r="153" spans="1:8" ht="22.500000">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D153" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E153" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="F153" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G153" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="H153" s="62"/>
+    </row>
+    <row r="154" spans="1:8" ht="22.500000">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E154" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="F154" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="G154" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="H154" s="62"/>
+    </row>
+    <row r="155" spans="1:8" ht="22.500000">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D155" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E155" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F155" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G155" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H155" s="62"/>
+    </row>
+    <row r="156" spans="1:8" ht="22.500000">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E156" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F156" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G156" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H156" s="62"/>
+    </row>
+    <row r="157" spans="1:8" ht="22.500000">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E157" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F157" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="G157" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H157" s="62"/>
+    </row>
+    <row r="158" spans="1:8" ht="33.750000">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D158" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E158" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F158" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G158" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="H158" s="62"/>
+    </row>
+    <row r="159" spans="1:8" ht="22.500000">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D159" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E159" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F159" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G159" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H159" s="62"/>
+    </row>
+    <row r="160" spans="1:8" ht="22.500000">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D160" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F160" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G160" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H160" s="62"/>
+    </row>
+    <row r="161" spans="1:8" ht="22.500000">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="G161" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="H161" s="62"/>
+    </row>
+    <row r="162" spans="1:8" ht="22.500000">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="D162" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E162" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F162" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G162" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="H156" s="4"/>
+      <c r="H162" s="62"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="62"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="62"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="62"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="62"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="62"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="62"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="62"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="47"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="48"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="48"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="48"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="48"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="48"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="48"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="48"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="48"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="48"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="48"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="48"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="48"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="48"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="47"/>
+      <c r="H184" s="48"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="48"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="48"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="47"/>
+      <c r="E187" s="47"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="48"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="47"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="48"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="47"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="47"/>
+      <c r="H189" s="48"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="47"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="47"/>
+      <c r="H190" s="48"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="47"/>
+      <c r="H191" s="48"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="47"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="48"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="48"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="47"/>
+      <c r="H194" s="48"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="47"/>
+      <c r="G195" s="47"/>
+      <c r="H195" s="48"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="48"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="48"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="47"/>
+      <c r="F198" s="47"/>
+      <c r="G198" s="47"/>
+      <c r="H198" s="48"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="H199" s="48"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="H200" s="48"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="H201" s="48"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="H202" s="48"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="H203" s="48"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="H204" s="48"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="H205" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H143"/>
-  <mergeCells count="32">
+  <autoFilter ref="A1:H158"/>
+  <mergeCells count="33">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="H4:H26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="A32:A72"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="H32:H72"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="A76:A84"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="H76:H84"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="A85:A128"/>
-    <mergeCell ref="B85:B106"/>
-    <mergeCell ref="H85:H128"/>
-    <mergeCell ref="B107:B115"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="H129:H143"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="H3:H36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="A41:A81"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="H41:H81"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="H82:H93"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="A94:A105"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="H94:H105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A147"/>
+    <mergeCell ref="B106:B125"/>
+    <mergeCell ref="H106:H147"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="B135:B142"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A148:A162"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="H148:H162"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B158:B161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
